--- a/191/191/danh gia 191.xlsx
+++ b/191/191/danh gia 191.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duy.nk - share\LMS\191\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\upload\191\191\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3543871-A959-4F73-BE9B-5989E1F23B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6529" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6612" uniqueCount="1526">
   <si>
     <t>Trường Đại học Mở Thành phố Hồ Chí Minh</t>
   </si>
@@ -4716,7 +4717,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4892,9 +4893,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4915,6 +4913,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17782,13 +17783,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AQ534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL229" sqref="AL229"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59:B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17814,20 +17815,20 @@
     <col min="20" max="20" width="10.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="17.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="21"/>
-    <col min="24" max="24" width="3.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="3.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="16.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="20"/>
+    <col min="24" max="24" width="3.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="3.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="16.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="43" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -17870,56 +17871,56 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:43" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
     </row>
     <row r="4" spans="1:43" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -18008,34 +18009,34 @@
       <c r="W6" s="8" t="s">
         <v>1479</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="19" t="s">
         <v>1483</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="Y6" s="19" t="s">
         <v>1484</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="19" t="s">
         <v>1485</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AA6" s="19" t="s">
         <v>1486</v>
       </c>
-      <c r="AB6" s="20" t="s">
+      <c r="AB6" s="19" t="s">
         <v>1487</v>
       </c>
-      <c r="AC6" s="20" t="s">
+      <c r="AC6" s="19" t="s">
         <v>1488</v>
       </c>
-      <c r="AD6" s="20" t="s">
+      <c r="AD6" s="19" t="s">
         <v>1489</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="19" t="s">
         <v>1490</v>
       </c>
-      <c r="AF6" s="20" t="s">
+      <c r="AF6" s="19" t="s">
         <v>1491</v>
       </c>
-      <c r="AG6" s="20" t="s">
+      <c r="AG6" s="19" t="s">
         <v>1492</v>
       </c>
       <c r="AH6" s="9" t="s">
@@ -18198,7 +18199,7 @@
       </c>
     </row>
     <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -18268,7 +18269,7 @@
       <c r="AP8" s="16"/>
     </row>
     <row r="9" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="27">
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -18338,7 +18339,7 @@
       <c r="AP9" s="16"/>
     </row>
     <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>3</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -18429,7 +18430,7 @@
       <c r="AK10" s="16">
         <v>2</v>
       </c>
-      <c r="AL10" s="24">
+      <c r="AL10" s="23">
         <v>0.08</v>
       </c>
       <c r="AM10" s="16">
@@ -18440,7 +18441,7 @@
       <c r="AP10" s="16"/>
     </row>
     <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="27">
         <v>4</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -18512,7 +18513,7 @@
       <c r="AP11" s="16"/>
     </row>
     <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -18605,7 +18606,7 @@
       <c r="AK12" s="16">
         <v>22</v>
       </c>
-      <c r="AL12" s="26">
+      <c r="AL12" s="25">
         <v>0.4</v>
       </c>
       <c r="AM12" s="16">
@@ -18616,7 +18617,7 @@
       <c r="AP12" s="16"/>
     </row>
     <row r="13" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -18707,7 +18708,7 @@
       <c r="AK13" s="16">
         <v>0</v>
       </c>
-      <c r="AL13" s="26">
+      <c r="AL13" s="25">
         <v>0</v>
       </c>
       <c r="AM13" s="16">
@@ -18718,7 +18719,7 @@
       <c r="AP13" s="16"/>
     </row>
     <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>7</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -18790,7 +18791,7 @@
       <c r="AP14" s="16"/>
     </row>
     <row r="15" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>8</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -18885,7 +18886,7 @@
       <c r="AK15" s="16">
         <v>29</v>
       </c>
-      <c r="AL15" s="26">
+      <c r="AL15" s="25">
         <v>0.87880000000000003</v>
       </c>
       <c r="AM15" s="16">
@@ -18896,7 +18897,7 @@
       <c r="AP15" s="16"/>
     </row>
     <row r="16" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>9</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -18989,7 +18990,7 @@
       <c r="AK16" s="16">
         <v>2</v>
       </c>
-      <c r="AL16" s="26">
+      <c r="AL16" s="25">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="AM16" s="16">
@@ -19000,7 +19001,7 @@
       <c r="AP16" s="16"/>
     </row>
     <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>10</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -19091,7 +19092,7 @@
       <c r="AK17" s="16">
         <v>1</v>
       </c>
-      <c r="AL17" s="26">
+      <c r="AL17" s="25">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="AM17" s="16">
@@ -19102,7 +19103,7 @@
       <c r="AP17" s="16"/>
     </row>
     <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -19197,7 +19198,7 @@
       <c r="AK18" s="16">
         <v>51</v>
       </c>
-      <c r="AL18" s="26">
+      <c r="AL18" s="25">
         <v>0.62949999999999995</v>
       </c>
       <c r="AM18" s="16">
@@ -19208,7 +19209,7 @@
       <c r="AP18" s="16"/>
     </row>
     <row r="19" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -19303,7 +19304,7 @@
       <c r="AK19" s="16">
         <v>24</v>
       </c>
-      <c r="AL19" s="26">
+      <c r="AL19" s="25">
         <v>0.88890000000000002</v>
       </c>
       <c r="AM19" s="16">
@@ -19314,7 +19315,7 @@
       <c r="AP19" s="16"/>
     </row>
     <row r="20" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -19384,7 +19385,7 @@
       <c r="AP20" s="16"/>
     </row>
     <row r="21" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -19477,7 +19478,7 @@
       <c r="AK21" s="16">
         <v>18</v>
       </c>
-      <c r="AL21" s="26">
+      <c r="AL21" s="25">
         <v>0.66669999999999996</v>
       </c>
       <c r="AM21" s="16">
@@ -19488,7 +19489,7 @@
       <c r="AP21" s="16"/>
     </row>
     <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -19558,7 +19559,7 @@
       <c r="AP22" s="16"/>
     </row>
     <row r="23" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>16</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -19649,7 +19650,7 @@
       <c r="AK23" s="16">
         <v>3</v>
       </c>
-      <c r="AL23" s="26">
+      <c r="AL23" s="25">
         <v>9.6799999999999997E-2</v>
       </c>
       <c r="AM23" s="16">
@@ -19660,7 +19661,7 @@
       <c r="AP23" s="16"/>
     </row>
     <row r="24" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>17</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -19755,7 +19756,7 @@
       <c r="AK24" s="16">
         <v>20</v>
       </c>
-      <c r="AL24" s="26">
+      <c r="AL24" s="25">
         <v>0.33900000000000002</v>
       </c>
       <c r="AM24" s="16">
@@ -19766,7 +19767,7 @@
       <c r="AP24" s="16"/>
     </row>
     <row r="25" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="22">
         <v>18</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -19861,7 +19862,7 @@
       <c r="AK25" s="16">
         <v>6</v>
       </c>
-      <c r="AL25" s="26">
+      <c r="AL25" s="25">
         <v>0.4</v>
       </c>
       <c r="AM25" s="16">
@@ -19872,7 +19873,7 @@
       <c r="AP25" s="16"/>
     </row>
     <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="26">
         <v>19</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -19944,7 +19945,7 @@
       <c r="AP26" s="16"/>
     </row>
     <row r="27" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>20</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -20039,7 +20040,7 @@
       <c r="AK27" s="16">
         <v>1</v>
       </c>
-      <c r="AL27" s="26">
+      <c r="AL27" s="25">
         <v>0.125</v>
       </c>
       <c r="AM27" s="16">
@@ -20050,7 +20051,7 @@
       <c r="AP27" s="16"/>
     </row>
     <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>21</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -20145,7 +20146,7 @@
       <c r="AK28" s="16">
         <v>3</v>
       </c>
-      <c r="AL28" s="26">
+      <c r="AL28" s="25">
         <v>0.6</v>
       </c>
       <c r="AM28" s="16">
@@ -20156,7 +20157,7 @@
       <c r="AP28" s="16"/>
     </row>
     <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>22</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -20253,7 +20254,7 @@
       <c r="AK29" s="16">
         <v>19</v>
       </c>
-      <c r="AL29" s="26">
+      <c r="AL29" s="25">
         <v>0.82609999999999995</v>
       </c>
       <c r="AM29" s="16">
@@ -20264,7 +20265,7 @@
       <c r="AP29" s="16"/>
     </row>
     <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <v>23</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -20359,7 +20360,7 @@
       <c r="AK30" s="16">
         <v>5</v>
       </c>
-      <c r="AL30" s="26">
+      <c r="AL30" s="25">
         <v>0.625</v>
       </c>
       <c r="AM30" s="16">
@@ -20370,7 +20371,7 @@
       <c r="AP30" s="16"/>
     </row>
     <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -20467,7 +20468,7 @@
       <c r="AK31" s="16">
         <v>17</v>
       </c>
-      <c r="AL31" s="26">
+      <c r="AL31" s="25">
         <v>0.85</v>
       </c>
       <c r="AM31" s="16">
@@ -20481,7 +20482,7 @@
       </c>
     </row>
     <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="21">
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -20576,7 +20577,7 @@
       <c r="AK32" s="16">
         <v>11</v>
       </c>
-      <c r="AL32" s="26">
+      <c r="AL32" s="25">
         <v>0.6875</v>
       </c>
       <c r="AM32" s="16">
@@ -20587,7 +20588,7 @@
       <c r="AP32" s="16"/>
     </row>
     <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>26</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -20684,7 +20685,7 @@
       <c r="AK33" s="16">
         <v>15</v>
       </c>
-      <c r="AL33" s="26">
+      <c r="AL33" s="25">
         <v>1</v>
       </c>
       <c r="AM33" s="16">
@@ -20695,7 +20696,7 @@
       <c r="AP33" s="16"/>
     </row>
     <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="26">
         <v>27</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -20767,7 +20768,7 @@
       <c r="AP34" s="16"/>
     </row>
     <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>28</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -20862,7 +20863,7 @@
       <c r="AK35" s="16">
         <v>34</v>
       </c>
-      <c r="AL35" s="26">
+      <c r="AL35" s="25">
         <v>0.94440000000000002</v>
       </c>
       <c r="AM35" s="16">
@@ -20873,7 +20874,7 @@
       <c r="AP35" s="16"/>
     </row>
     <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="21">
         <v>29</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -20970,7 +20971,7 @@
       <c r="AK36" s="16">
         <v>22</v>
       </c>
-      <c r="AL36" s="26">
+      <c r="AL36" s="25">
         <v>0.95650000000000002</v>
       </c>
       <c r="AM36" s="16">
@@ -20981,7 +20982,7 @@
       <c r="AP36" s="16"/>
     </row>
     <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="A37" s="22">
         <v>30</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -21076,7 +21077,7 @@
       <c r="AK37" s="16">
         <v>20</v>
       </c>
-      <c r="AL37" s="26">
+      <c r="AL37" s="25">
         <v>0.86960000000000004</v>
       </c>
       <c r="AM37" s="16">
@@ -21087,7 +21088,7 @@
       <c r="AP37" s="16"/>
     </row>
     <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="A38" s="21">
         <v>31</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -21184,7 +21185,7 @@
       <c r="AK38" s="16">
         <v>18</v>
       </c>
-      <c r="AL38" s="26">
+      <c r="AL38" s="25">
         <v>0.78259999999999996</v>
       </c>
       <c r="AM38" s="16">
@@ -21195,7 +21196,7 @@
       <c r="AP38" s="16"/>
     </row>
     <row r="39" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>32</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -21292,7 +21293,7 @@
       <c r="AK39" s="16">
         <v>21</v>
       </c>
-      <c r="AL39" s="26">
+      <c r="AL39" s="25">
         <v>1</v>
       </c>
       <c r="AM39" s="16">
@@ -22642,7 +22643,7 @@
       <c r="AP58" s="16"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
+      <c r="A59" s="22">
         <v>52</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -22739,7 +22740,7 @@
       <c r="AK59" s="16">
         <v>6</v>
       </c>
-      <c r="AL59" s="26">
+      <c r="AL59" s="25">
         <v>0.26090000000000002</v>
       </c>
       <c r="AM59" s="16">
@@ -22750,7 +22751,7 @@
       <c r="AP59" s="16"/>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="21">
         <v>53</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -22847,7 +22848,7 @@
       <c r="AK60" s="16">
         <v>4</v>
       </c>
-      <c r="AL60" s="26">
+      <c r="AL60" s="25">
         <v>0.1026</v>
       </c>
       <c r="AM60" s="16">
@@ -22858,7 +22859,7 @@
       <c r="AP60" s="16"/>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>54</v>
       </c>
       <c r="B61" s="12" t="s">
@@ -22955,7 +22956,7 @@
       <c r="AK61" s="16">
         <v>5</v>
       </c>
-      <c r="AL61" s="26">
+      <c r="AL61" s="25">
         <v>0.122</v>
       </c>
       <c r="AM61" s="16">
@@ -22966,7 +22967,7 @@
       <c r="AP61" s="16"/>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="A62" s="21">
         <v>55</v>
       </c>
       <c r="B62" s="12" t="s">
@@ -23063,7 +23064,7 @@
       <c r="AK62" s="16">
         <v>6</v>
       </c>
-      <c r="AL62" s="26">
+      <c r="AL62" s="25">
         <v>0.15379999999999999</v>
       </c>
       <c r="AM62" s="16">
@@ -23074,7 +23075,7 @@
       <c r="AP62" s="16"/>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
+      <c r="A63" s="22">
         <v>56</v>
       </c>
       <c r="B63" s="12" t="s">
@@ -23171,7 +23172,7 @@
       <c r="AK63" s="16">
         <v>13</v>
       </c>
-      <c r="AL63" s="26">
+      <c r="AL63" s="25">
         <v>0.1024</v>
       </c>
       <c r="AM63" s="16">
@@ -23182,7 +23183,7 @@
       <c r="AP63" s="16"/>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
+      <c r="A64" s="26">
         <v>57</v>
       </c>
       <c r="B64" s="12" t="s">
@@ -23225,7 +23226,9 @@
         <v>48</v>
       </c>
       <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
+      <c r="R64" s="12" t="s">
+        <v>1521</v>
+      </c>
       <c r="S64" s="12"/>
       <c r="T64" s="12" t="s">
         <v>297</v>
@@ -23254,7 +23257,7 @@
       <c r="AP64" s="16"/>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
+      <c r="A65" s="22">
         <v>58</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -23296,8 +23299,12 @@
       <c r="P65" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
+      <c r="Q65" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R65" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S65" s="12"/>
       <c r="T65" s="12" t="s">
         <v>290</v>
@@ -23307,28 +23314,58 @@
       <c r="W65" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16"/>
-      <c r="AD65" s="16"/>
-      <c r="AE65" s="16"/>
-      <c r="AF65" s="16"/>
-      <c r="AG65" s="16"/>
+      <c r="X65" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA65" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD65" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE65" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="16">
+        <v>10</v>
+      </c>
       <c r="AH65" s="16"/>
-      <c r="AI65" s="16"/>
-      <c r="AJ65" s="16"/>
-      <c r="AK65" s="16"/>
-      <c r="AL65" s="16"/>
-      <c r="AM65" s="16"/>
+      <c r="AI65" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ65" s="16">
+        <v>70</v>
+      </c>
+      <c r="AK65" s="16">
+        <v>15</v>
+      </c>
+      <c r="AL65" s="25">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="AM65" s="16">
+        <v>1</v>
+      </c>
       <c r="AN65" s="16"/>
       <c r="AO65" s="16"/>
       <c r="AP65" s="16"/>
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
+      <c r="A66" s="21">
         <v>59</v>
       </c>
       <c r="B66" s="12" t="s">
@@ -23370,8 +23407,12 @@
       <c r="P66" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
+      <c r="Q66" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R66" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S66" s="12"/>
       <c r="T66" s="12" t="s">
         <v>290</v>
@@ -23381,28 +23422,56 @@
       <c r="W66" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="16"/>
-      <c r="AD66" s="16"/>
-      <c r="AE66" s="16"/>
-      <c r="AF66" s="16"/>
-      <c r="AG66" s="16"/>
+      <c r="X66" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y66" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE66" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="16">
+        <v>0</v>
+      </c>
       <c r="AH66" s="16"/>
       <c r="AI66" s="16"/>
-      <c r="AJ66" s="16"/>
-      <c r="AK66" s="16"/>
-      <c r="AL66" s="16"/>
-      <c r="AM66" s="16"/>
+      <c r="AJ66" s="16">
+        <v>47</v>
+      </c>
+      <c r="AK66" s="16">
+        <v>14</v>
+      </c>
+      <c r="AL66" s="25">
+        <v>0.2979</v>
+      </c>
+      <c r="AM66" s="16">
+        <v>1</v>
+      </c>
       <c r="AN66" s="16"/>
       <c r="AO66" s="16"/>
       <c r="AP66" s="16"/>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
+      <c r="A67" s="22">
         <v>60</v>
       </c>
       <c r="B67" s="12" t="s">
@@ -23444,8 +23513,12 @@
       <c r="P67" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
+      <c r="Q67" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R67" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S67" s="12"/>
       <c r="T67" s="12" t="s">
         <v>290</v>
@@ -23455,28 +23528,56 @@
       <c r="W67" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="16"/>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="16"/>
-      <c r="AB67" s="16"/>
-      <c r="AC67" s="16"/>
-      <c r="AD67" s="16"/>
-      <c r="AE67" s="16"/>
-      <c r="AF67" s="16"/>
-      <c r="AG67" s="16"/>
+      <c r="X67" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y67" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="16">
+        <v>15</v>
+      </c>
+      <c r="AE67" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="16">
+        <v>0</v>
+      </c>
       <c r="AH67" s="16"/>
       <c r="AI67" s="16"/>
-      <c r="AJ67" s="16"/>
-      <c r="AK67" s="16"/>
-      <c r="AL67" s="16"/>
-      <c r="AM67" s="16"/>
+      <c r="AJ67" s="16">
+        <v>54</v>
+      </c>
+      <c r="AK67" s="16">
+        <v>8</v>
+      </c>
+      <c r="AL67" s="25">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="AM67" s="16">
+        <v>1</v>
+      </c>
       <c r="AN67" s="16"/>
       <c r="AO67" s="16"/>
       <c r="AP67" s="16"/>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
+      <c r="A68" s="21">
         <v>61</v>
       </c>
       <c r="B68" s="12" t="s">
@@ -23518,8 +23619,12 @@
       <c r="P68" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
+      <c r="Q68" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R68" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S68" s="12"/>
       <c r="T68" s="12" t="s">
         <v>290</v>
@@ -23529,28 +23634,56 @@
       <c r="W68" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="16"/>
-      <c r="AB68" s="16"/>
-      <c r="AC68" s="16"/>
-      <c r="AD68" s="16"/>
-      <c r="AE68" s="16"/>
-      <c r="AF68" s="16"/>
-      <c r="AG68" s="16"/>
+      <c r="X68" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y68" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD68" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="16">
+        <v>0</v>
+      </c>
       <c r="AH68" s="16"/>
       <c r="AI68" s="16"/>
-      <c r="AJ68" s="16"/>
-      <c r="AK68" s="16"/>
-      <c r="AL68" s="16"/>
-      <c r="AM68" s="16"/>
+      <c r="AJ68" s="16">
+        <v>19</v>
+      </c>
+      <c r="AK68" s="16">
+        <v>12</v>
+      </c>
+      <c r="AL68" s="25">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="AM68" s="16">
+        <v>1</v>
+      </c>
       <c r="AN68" s="16"/>
       <c r="AO68" s="16"/>
       <c r="AP68" s="16"/>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
+      <c r="A69" s="22">
         <v>62</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -23592,8 +23725,12 @@
       <c r="P69" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
+      <c r="Q69" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R69" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S69" s="12"/>
       <c r="T69" s="12" t="s">
         <v>290</v>
@@ -23603,22 +23740,50 @@
       <c r="W69" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="16"/>
-      <c r="AD69" s="16"/>
-      <c r="AE69" s="16"/>
-      <c r="AF69" s="16"/>
-      <c r="AG69" s="16"/>
+      <c r="X69" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="16">
+        <v>0</v>
+      </c>
       <c r="AH69" s="16"/>
       <c r="AI69" s="16"/>
-      <c r="AJ69" s="16"/>
-      <c r="AK69" s="16"/>
-      <c r="AL69" s="16"/>
-      <c r="AM69" s="16"/>
+      <c r="AJ69" s="16">
+        <v>18</v>
+      </c>
+      <c r="AK69" s="16">
+        <v>4</v>
+      </c>
+      <c r="AL69" s="25">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AM69" s="16">
+        <v>1</v>
+      </c>
       <c r="AN69" s="16"/>
       <c r="AO69" s="16"/>
       <c r="AP69" s="16"/>
@@ -23844,7 +24009,7 @@
       <c r="AP72" s="16"/>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
+      <c r="A73" s="22">
         <v>66</v>
       </c>
       <c r="B73" s="12" t="s">
@@ -23941,7 +24106,7 @@
       <c r="AK73" s="16">
         <v>6</v>
       </c>
-      <c r="AL73" s="26">
+      <c r="AL73" s="25">
         <v>0.1875</v>
       </c>
       <c r="AM73" s="16">
@@ -24098,7 +24263,7 @@
       <c r="AP75" s="16"/>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A76" s="12">
+      <c r="A76" s="21">
         <v>69</v>
       </c>
       <c r="B76" s="12" t="s">
@@ -24140,8 +24305,12 @@
       <c r="P76" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
+      <c r="Q76" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R76" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S76" s="12"/>
       <c r="T76" s="12" t="s">
         <v>297</v>
@@ -24149,28 +24318,56 @@
       <c r="U76" s="12"/>
       <c r="V76" s="12"/>
       <c r="W76" s="16"/>
-      <c r="X76" s="16"/>
-      <c r="Y76" s="16"/>
-      <c r="Z76" s="16"/>
-      <c r="AA76" s="16"/>
-      <c r="AB76" s="16"/>
-      <c r="AC76" s="16"/>
-      <c r="AD76" s="16"/>
-      <c r="AE76" s="16"/>
-      <c r="AF76" s="16"/>
-      <c r="AG76" s="16"/>
+      <c r="X76" s="16">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="16">
+        <v>5</v>
+      </c>
+      <c r="AE76" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="16">
+        <v>0</v>
+      </c>
       <c r="AH76" s="16"/>
       <c r="AI76" s="16"/>
-      <c r="AJ76" s="16"/>
-      <c r="AK76" s="16"/>
-      <c r="AL76" s="16"/>
-      <c r="AM76" s="16"/>
+      <c r="AJ76" s="16">
+        <v>31</v>
+      </c>
+      <c r="AK76" s="16">
+        <v>11</v>
+      </c>
+      <c r="AL76" s="25">
+        <v>0.3548</v>
+      </c>
+      <c r="AM76" s="16">
+        <v>0</v>
+      </c>
       <c r="AN76" s="16"/>
       <c r="AO76" s="16"/>
       <c r="AP76" s="16"/>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+      <c r="A77" s="22">
         <v>70</v>
       </c>
       <c r="B77" s="12" t="s">
@@ -24267,7 +24464,7 @@
       <c r="AK77" s="16">
         <v>26</v>
       </c>
-      <c r="AL77" s="26">
+      <c r="AL77" s="25">
         <v>0.76470000000000005</v>
       </c>
       <c r="AM77" s="16">
@@ -24498,7 +24695,7 @@
       <c r="AP80" s="16"/>
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
+      <c r="A81" s="22">
         <v>74</v>
       </c>
       <c r="B81" s="12" t="s">
@@ -24595,7 +24792,7 @@
       <c r="AK81" s="16">
         <v>29</v>
       </c>
-      <c r="AL81" s="26">
+      <c r="AL81" s="25">
         <v>0.6744</v>
       </c>
       <c r="AM81" s="16">
@@ -24606,7 +24803,7 @@
       <c r="AP81" s="16"/>
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A82" s="22">
+      <c r="A82" s="21">
         <v>75</v>
       </c>
       <c r="B82" s="12" t="s">
@@ -24701,7 +24898,7 @@
       <c r="AK82" s="16">
         <v>29</v>
       </c>
-      <c r="AL82" s="26">
+      <c r="AL82" s="25">
         <v>0.6744</v>
       </c>
       <c r="AM82" s="16">
@@ -24712,7 +24909,7 @@
       <c r="AP82" s="16"/>
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A83" s="28">
+      <c r="A83" s="27">
         <v>76</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -24924,7 +25121,7 @@
       <c r="AP85" s="16"/>
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A86" s="12">
+      <c r="A86" s="26">
         <v>79</v>
       </c>
       <c r="B86" s="12" t="s">
@@ -24967,7 +25164,9 @@
         <v>48</v>
       </c>
       <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
+      <c r="R86" s="12" t="s">
+        <v>1521</v>
+      </c>
       <c r="S86" s="12"/>
       <c r="T86" s="12" t="s">
         <v>297</v>
@@ -25142,7 +25341,7 @@
       <c r="AP88" s="16"/>
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
+      <c r="A89" s="22">
         <v>82</v>
       </c>
       <c r="B89" s="12" t="s">
@@ -25237,7 +25436,7 @@
       <c r="AK89" s="16">
         <v>6</v>
       </c>
-      <c r="AL89" s="26">
+      <c r="AL89" s="25">
         <v>8.5699999999999998E-2</v>
       </c>
       <c r="AM89" s="16">
@@ -25690,7 +25889,7 @@
       <c r="AP95" s="16"/>
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A96" s="12">
+      <c r="A96" s="21">
         <v>89</v>
       </c>
       <c r="B96" s="12" t="s">
@@ -25732,8 +25931,12 @@
       <c r="P96" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
+      <c r="Q96" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R96" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="S96" s="12"/>
       <c r="T96" s="12" t="s">
         <v>290</v>
@@ -25743,28 +25946,60 @@
       <c r="W96" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X96" s="16"/>
-      <c r="Y96" s="16"/>
-      <c r="Z96" s="16"/>
-      <c r="AA96" s="16"/>
-      <c r="AB96" s="16"/>
-      <c r="AC96" s="16"/>
-      <c r="AD96" s="16"/>
-      <c r="AE96" s="16"/>
-      <c r="AF96" s="16"/>
-      <c r="AG96" s="16"/>
-      <c r="AH96" s="16"/>
-      <c r="AI96" s="16"/>
-      <c r="AJ96" s="16"/>
-      <c r="AK96" s="16"/>
-      <c r="AL96" s="16"/>
-      <c r="AM96" s="16"/>
+      <c r="X96" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y96" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z96" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA96" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD96" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE96" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="16">
+        <v>10</v>
+      </c>
+      <c r="AH96" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI96" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ96" s="16">
+        <v>10</v>
+      </c>
+      <c r="AK96" s="16">
+        <v>8</v>
+      </c>
+      <c r="AL96" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="AM96" s="16">
+        <v>1</v>
+      </c>
       <c r="AN96" s="16"/>
       <c r="AO96" s="16"/>
       <c r="AP96" s="16"/>
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A97" s="28">
+      <c r="A97" s="27">
         <v>90</v>
       </c>
       <c r="B97" s="12" t="s">
@@ -26202,7 +26437,7 @@
       <c r="AP102" s="16"/>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A103" s="15">
+      <c r="A103" s="22">
         <v>96</v>
       </c>
       <c r="B103" s="12" t="s">
@@ -26244,8 +26479,12 @@
       <c r="P103" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
+      <c r="Q103" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R103" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S103" s="12"/>
       <c r="T103" s="12" t="s">
         <v>290</v>
@@ -26255,22 +26494,50 @@
       <c r="W103" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X103" s="16"/>
-      <c r="Y103" s="16"/>
-      <c r="Z103" s="16"/>
-      <c r="AA103" s="16"/>
-      <c r="AB103" s="16"/>
-      <c r="AC103" s="16"/>
-      <c r="AD103" s="16"/>
-      <c r="AE103" s="16"/>
-      <c r="AF103" s="16"/>
-      <c r="AG103" s="16"/>
+      <c r="X103" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y103" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD103" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="16">
+        <v>0</v>
+      </c>
       <c r="AH103" s="16"/>
       <c r="AI103" s="16"/>
-      <c r="AJ103" s="16"/>
-      <c r="AK103" s="16"/>
-      <c r="AL103" s="16"/>
-      <c r="AM103" s="16"/>
+      <c r="AJ103" s="16">
+        <v>43</v>
+      </c>
+      <c r="AK103" s="16">
+        <v>6</v>
+      </c>
+      <c r="AL103" s="25">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="AM103" s="16">
+        <v>1</v>
+      </c>
       <c r="AN103" s="16"/>
       <c r="AO103" s="16"/>
       <c r="AP103" s="16"/>
@@ -26716,7 +26983,7 @@
       <c r="AP109" s="16"/>
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A110" s="12">
+      <c r="A110" s="21">
         <v>103</v>
       </c>
       <c r="B110" s="12" t="s">
@@ -26758,8 +27025,12 @@
       <c r="P110" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
+      <c r="Q110" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R110" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S110" s="12"/>
       <c r="T110" s="12" t="s">
         <v>290</v>
@@ -26769,22 +27040,50 @@
       <c r="W110" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X110" s="16"/>
-      <c r="Y110" s="16"/>
-      <c r="Z110" s="16"/>
-      <c r="AA110" s="16"/>
-      <c r="AB110" s="16"/>
-      <c r="AC110" s="16"/>
-      <c r="AD110" s="16"/>
-      <c r="AE110" s="16"/>
-      <c r="AF110" s="16"/>
-      <c r="AG110" s="16"/>
+      <c r="X110" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y110" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z110" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD110" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="16">
+        <v>0</v>
+      </c>
       <c r="AH110" s="16"/>
       <c r="AI110" s="16"/>
-      <c r="AJ110" s="16"/>
-      <c r="AK110" s="16"/>
-      <c r="AL110" s="16"/>
-      <c r="AM110" s="16"/>
+      <c r="AJ110" s="16">
+        <v>50</v>
+      </c>
+      <c r="AK110" s="16">
+        <v>16</v>
+      </c>
+      <c r="AL110" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AM110" s="16">
+        <v>1</v>
+      </c>
       <c r="AN110" s="16"/>
       <c r="AO110" s="16"/>
       <c r="AP110" s="16"/>
@@ -27086,7 +27385,7 @@
       <c r="AP114" s="16"/>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A115" s="23">
+      <c r="A115" s="22">
         <v>108</v>
       </c>
       <c r="B115" s="12" t="s">
@@ -27183,7 +27482,7 @@
       <c r="AK115" s="16">
         <v>7</v>
       </c>
-      <c r="AL115" s="26">
+      <c r="AL115" s="25">
         <v>0.13730000000000001</v>
       </c>
       <c r="AM115" s="16">
@@ -27268,7 +27567,7 @@
       <c r="AP116" s="16"/>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A117" s="15">
+      <c r="A117" s="27">
         <v>110</v>
       </c>
       <c r="B117" s="12" t="s">
@@ -27311,7 +27610,9 @@
         <v>48</v>
       </c>
       <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
+      <c r="R117" s="12" t="s">
+        <v>1521</v>
+      </c>
       <c r="S117" s="12"/>
       <c r="T117" s="12" t="s">
         <v>297</v>
@@ -27412,7 +27713,7 @@
       <c r="AP118" s="16"/>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A119" s="15">
+      <c r="A119" s="22">
         <v>112</v>
       </c>
       <c r="B119" s="12" t="s">
@@ -27454,8 +27755,12 @@
       <c r="P119" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
+      <c r="Q119" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R119" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S119" s="12"/>
       <c r="T119" s="12" t="s">
         <v>290</v>
@@ -27465,28 +27770,56 @@
       <c r="W119" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X119" s="16"/>
-      <c r="Y119" s="16"/>
-      <c r="Z119" s="16"/>
-      <c r="AA119" s="16"/>
-      <c r="AB119" s="16"/>
-      <c r="AC119" s="16"/>
-      <c r="AD119" s="16"/>
-      <c r="AE119" s="16"/>
-      <c r="AF119" s="16"/>
-      <c r="AG119" s="16"/>
+      <c r="X119" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y119" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z119" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB119" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD119" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE119" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG119" s="16">
+        <v>0</v>
+      </c>
       <c r="AH119" s="16"/>
       <c r="AI119" s="16"/>
-      <c r="AJ119" s="16"/>
-      <c r="AK119" s="16"/>
-      <c r="AL119" s="16"/>
-      <c r="AM119" s="16"/>
+      <c r="AJ119" s="16">
+        <v>49</v>
+      </c>
+      <c r="AK119" s="16">
+        <v>18</v>
+      </c>
+      <c r="AL119" s="25">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="AM119" s="16">
+        <v>1</v>
+      </c>
       <c r="AN119" s="16"/>
       <c r="AO119" s="16"/>
       <c r="AP119" s="16"/>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A120" s="12">
+      <c r="A120" s="21">
         <v>113</v>
       </c>
       <c r="B120" s="12" t="s">
@@ -27528,8 +27861,12 @@
       <c r="P120" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="12"/>
+      <c r="Q120" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R120" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S120" s="12"/>
       <c r="T120" s="12" t="s">
         <v>290</v>
@@ -27539,28 +27876,56 @@
       <c r="W120" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="16"/>
-      <c r="Z120" s="16"/>
-      <c r="AA120" s="16"/>
-      <c r="AB120" s="16"/>
-      <c r="AC120" s="16"/>
-      <c r="AD120" s="16"/>
-      <c r="AE120" s="16"/>
-      <c r="AF120" s="16"/>
-      <c r="AG120" s="16"/>
+      <c r="X120" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y120" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="16">
+        <v>15</v>
+      </c>
+      <c r="AE120" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG120" s="16">
+        <v>0</v>
+      </c>
       <c r="AH120" s="16"/>
       <c r="AI120" s="16"/>
-      <c r="AJ120" s="16"/>
-      <c r="AK120" s="16"/>
-      <c r="AL120" s="16"/>
-      <c r="AM120" s="16"/>
+      <c r="AJ120" s="16">
+        <v>49</v>
+      </c>
+      <c r="AK120" s="16">
+        <v>9</v>
+      </c>
+      <c r="AL120" s="25">
+        <v>0.1837</v>
+      </c>
+      <c r="AM120" s="16">
+        <v>1</v>
+      </c>
       <c r="AN120" s="16"/>
       <c r="AO120" s="16"/>
       <c r="AP120" s="16"/>
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A121" s="23">
+      <c r="A121" s="22">
         <v>114</v>
       </c>
       <c r="B121" s="12" t="s">
@@ -27657,7 +28022,7 @@
       <c r="AK121" s="16">
         <v>16</v>
       </c>
-      <c r="AL121" s="26">
+      <c r="AL121" s="25">
         <v>0.22539999999999999</v>
       </c>
       <c r="AM121" s="16">
@@ -27816,7 +28181,7 @@
       <c r="AP123" s="16"/>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A124" s="12">
+      <c r="A124" s="21">
         <v>117</v>
       </c>
       <c r="B124" s="12" t="s">
@@ -27858,8 +28223,12 @@
       <c r="P124" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q124" s="12"/>
-      <c r="R124" s="12"/>
+      <c r="Q124" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R124" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="S124" s="12"/>
       <c r="T124" s="12" t="s">
         <v>290</v>
@@ -27871,28 +28240,60 @@
       <c r="W124" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X124" s="16"/>
-      <c r="Y124" s="16"/>
-      <c r="Z124" s="16"/>
-      <c r="AA124" s="16"/>
-      <c r="AB124" s="16"/>
-      <c r="AC124" s="16"/>
-      <c r="AD124" s="16"/>
-      <c r="AE124" s="16"/>
-      <c r="AF124" s="16"/>
-      <c r="AG124" s="16"/>
-      <c r="AH124" s="16"/>
-      <c r="AI124" s="16"/>
-      <c r="AJ124" s="16"/>
-      <c r="AK124" s="16"/>
-      <c r="AL124" s="16"/>
-      <c r="AM124" s="16"/>
+      <c r="X124" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y124" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z124" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA124" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB124" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC124" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD124" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE124" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF124" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG124" s="16">
+        <v>10</v>
+      </c>
+      <c r="AH124" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI124" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ124" s="16">
+        <v>71</v>
+      </c>
+      <c r="AK124" s="16">
+        <v>57</v>
+      </c>
+      <c r="AL124" s="25">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="AM124" s="16">
+        <v>1</v>
+      </c>
       <c r="AN124" s="16"/>
       <c r="AO124" s="16"/>
       <c r="AP124" s="16"/>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A125" s="15">
+      <c r="A125" s="22">
         <v>118</v>
       </c>
       <c r="B125" s="12" t="s">
@@ -27934,8 +28335,12 @@
       <c r="P125" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q125" s="12"/>
-      <c r="R125" s="12"/>
+      <c r="Q125" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R125" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
       <c r="U125" s="12"/>
@@ -27945,22 +28350,54 @@
       <c r="W125" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X125" s="16"/>
-      <c r="Y125" s="16"/>
-      <c r="Z125" s="16"/>
-      <c r="AA125" s="16"/>
-      <c r="AB125" s="16"/>
-      <c r="AC125" s="16"/>
-      <c r="AD125" s="16"/>
-      <c r="AE125" s="16"/>
-      <c r="AF125" s="16"/>
-      <c r="AG125" s="16"/>
-      <c r="AH125" s="16"/>
-      <c r="AI125" s="16"/>
-      <c r="AJ125" s="16"/>
-      <c r="AK125" s="16"/>
-      <c r="AL125" s="16"/>
-      <c r="AM125" s="16"/>
+      <c r="X125" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y125" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA125" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB125" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC125" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD125" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE125" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF125" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG125" s="16">
+        <v>10</v>
+      </c>
+      <c r="AH125" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI125" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ125" s="16">
+        <v>28</v>
+      </c>
+      <c r="AK125" s="16">
+        <v>16</v>
+      </c>
+      <c r="AL125" s="25">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="AM125" s="16">
+        <v>1</v>
+      </c>
       <c r="AN125" s="16"/>
       <c r="AO125" s="16"/>
       <c r="AP125" s="16"/>
@@ -28038,7 +28475,7 @@
       <c r="AP126" s="16"/>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A127" s="15">
+      <c r="A127" s="22">
         <v>120</v>
       </c>
       <c r="B127" s="12" t="s">
@@ -28080,8 +28517,12 @@
       <c r="P127" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q127" s="12"/>
-      <c r="R127" s="12"/>
+      <c r="Q127" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R127" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S127" s="12"/>
       <c r="T127" s="12" t="s">
         <v>290</v>
@@ -28093,28 +28534,56 @@
       <c r="W127" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X127" s="16"/>
-      <c r="Y127" s="16"/>
-      <c r="Z127" s="16"/>
-      <c r="AA127" s="16"/>
-      <c r="AB127" s="16"/>
-      <c r="AC127" s="16"/>
-      <c r="AD127" s="16"/>
-      <c r="AE127" s="16"/>
-      <c r="AF127" s="16"/>
-      <c r="AG127" s="16"/>
+      <c r="X127" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y127" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB127" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC127" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD127" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE127" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF127" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG127" s="16">
+        <v>0</v>
+      </c>
       <c r="AH127" s="16"/>
       <c r="AI127" s="16"/>
-      <c r="AJ127" s="16"/>
-      <c r="AK127" s="16"/>
-      <c r="AL127" s="16"/>
-      <c r="AM127" s="16"/>
+      <c r="AJ127" s="16">
+        <v>67</v>
+      </c>
+      <c r="AK127" s="16">
+        <v>26</v>
+      </c>
+      <c r="AL127" s="25">
+        <v>0.3881</v>
+      </c>
+      <c r="AM127" s="16">
+        <v>1</v>
+      </c>
       <c r="AN127" s="16"/>
       <c r="AO127" s="16"/>
       <c r="AP127" s="16"/>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A128" s="12">
+      <c r="A128" s="21">
         <v>121</v>
       </c>
       <c r="B128" s="12" t="s">
@@ -28156,8 +28625,12 @@
       <c r="P128" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q128" s="12"/>
-      <c r="R128" s="12"/>
+      <c r="Q128" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R128" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S128" s="12"/>
       <c r="T128" s="12" t="s">
         <v>297</v>
@@ -28167,22 +28640,50 @@
       <c r="W128" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X128" s="16"/>
-      <c r="Y128" s="16"/>
-      <c r="Z128" s="16"/>
-      <c r="AA128" s="16"/>
-      <c r="AB128" s="16"/>
-      <c r="AC128" s="16"/>
-      <c r="AD128" s="16"/>
-      <c r="AE128" s="16"/>
-      <c r="AF128" s="16"/>
-      <c r="AG128" s="16"/>
+      <c r="X128" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y128" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z128" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD128" s="16">
+        <v>15</v>
+      </c>
+      <c r="AE128" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF128" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG128" s="16">
+        <v>0</v>
+      </c>
       <c r="AH128" s="16"/>
       <c r="AI128" s="16"/>
-      <c r="AJ128" s="16"/>
-      <c r="AK128" s="16"/>
-      <c r="AL128" s="16"/>
-      <c r="AM128" s="16"/>
+      <c r="AJ128" s="16">
+        <v>67</v>
+      </c>
+      <c r="AK128" s="16">
+        <v>16</v>
+      </c>
+      <c r="AL128" s="25">
+        <v>0.23880000000000001</v>
+      </c>
+      <c r="AM128" s="16">
+        <v>0</v>
+      </c>
       <c r="AN128" s="16"/>
       <c r="AO128" s="16"/>
       <c r="AP128" s="16"/>
@@ -28260,7 +28761,7 @@
       <c r="AP129" s="16"/>
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A130" s="12">
+      <c r="A130" s="21">
         <v>123</v>
       </c>
       <c r="B130" s="12" t="s">
@@ -28302,8 +28803,12 @@
       <c r="P130" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q130" s="12"/>
-      <c r="R130" s="12"/>
+      <c r="Q130" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R130" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S130" s="12"/>
       <c r="T130" s="12"/>
       <c r="U130" s="12"/>
@@ -28313,28 +28818,56 @@
       <c r="W130" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X130" s="16"/>
-      <c r="Y130" s="16"/>
-      <c r="Z130" s="16"/>
-      <c r="AA130" s="16"/>
-      <c r="AB130" s="16"/>
-      <c r="AC130" s="16"/>
-      <c r="AD130" s="16"/>
-      <c r="AE130" s="16"/>
-      <c r="AF130" s="16"/>
-      <c r="AG130" s="16"/>
+      <c r="X130" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y130" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z130" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB130" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC130" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD130" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE130" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF130" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG130" s="16">
+        <v>0</v>
+      </c>
       <c r="AH130" s="16"/>
       <c r="AI130" s="16"/>
-      <c r="AJ130" s="16"/>
-      <c r="AK130" s="16"/>
-      <c r="AL130" s="16"/>
-      <c r="AM130" s="16"/>
+      <c r="AJ130" s="16">
+        <v>37</v>
+      </c>
+      <c r="AK130" s="16">
+        <v>20</v>
+      </c>
+      <c r="AL130" s="25">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="AM130" s="16">
+        <v>1</v>
+      </c>
       <c r="AN130" s="16"/>
       <c r="AO130" s="16"/>
       <c r="AP130" s="16"/>
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A131" s="15">
+      <c r="A131" s="22">
         <v>124</v>
       </c>
       <c r="B131" s="12" t="s">
@@ -28376,8 +28909,12 @@
       <c r="P131" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q131" s="12"/>
-      <c r="R131" s="12"/>
+      <c r="Q131" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R131" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S131" s="12"/>
       <c r="T131" s="12"/>
       <c r="U131" s="12"/>
@@ -28387,22 +28924,50 @@
       <c r="W131" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X131" s="16"/>
-      <c r="Y131" s="16"/>
-      <c r="Z131" s="16"/>
-      <c r="AA131" s="16"/>
-      <c r="AB131" s="16"/>
-      <c r="AC131" s="16"/>
-      <c r="AD131" s="16"/>
-      <c r="AE131" s="16"/>
-      <c r="AF131" s="16"/>
-      <c r="AG131" s="16"/>
+      <c r="X131" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y131" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z131" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB131" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC131" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD131" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE131" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF131" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG131" s="16">
+        <v>0</v>
+      </c>
       <c r="AH131" s="16"/>
       <c r="AI131" s="16"/>
-      <c r="AJ131" s="16"/>
-      <c r="AK131" s="16"/>
-      <c r="AL131" s="16"/>
-      <c r="AM131" s="16"/>
+      <c r="AJ131" s="16">
+        <v>24</v>
+      </c>
+      <c r="AK131" s="16">
+        <v>10</v>
+      </c>
+      <c r="AL131" s="25">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="AM131" s="16">
+        <v>1</v>
+      </c>
       <c r="AN131" s="16"/>
       <c r="AO131" s="16"/>
       <c r="AP131" s="16"/>
@@ -28482,7 +29047,7 @@
       <c r="AP132" s="16"/>
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A133" s="15">
+      <c r="A133" s="22">
         <v>126</v>
       </c>
       <c r="B133" s="12" t="s">
@@ -28524,8 +29089,12 @@
       <c r="P133" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q133" s="12"/>
-      <c r="R133" s="12"/>
+      <c r="Q133" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R133" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S133" s="12"/>
       <c r="T133" s="12" t="s">
         <v>297</v>
@@ -28535,22 +29104,50 @@
       <c r="W133" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X133" s="16"/>
-      <c r="Y133" s="16"/>
-      <c r="Z133" s="16"/>
-      <c r="AA133" s="16"/>
-      <c r="AB133" s="16"/>
-      <c r="AC133" s="16"/>
-      <c r="AD133" s="16"/>
-      <c r="AE133" s="16"/>
-      <c r="AF133" s="16"/>
-      <c r="AG133" s="16"/>
+      <c r="X133" s="16">
+        <v>5</v>
+      </c>
+      <c r="Y133" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD133" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE133" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF133" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG133" s="16">
+        <v>0</v>
+      </c>
       <c r="AH133" s="16"/>
       <c r="AI133" s="16"/>
-      <c r="AJ133" s="16"/>
-      <c r="AK133" s="16"/>
-      <c r="AL133" s="16"/>
-      <c r="AM133" s="16"/>
+      <c r="AJ133" s="16">
+        <v>27</v>
+      </c>
+      <c r="AK133" s="16">
+        <v>5</v>
+      </c>
+      <c r="AL133" s="25">
+        <v>0.1852</v>
+      </c>
+      <c r="AM133" s="16">
+        <v>0</v>
+      </c>
       <c r="AN133" s="16"/>
       <c r="AO133" s="16"/>
       <c r="AP133" s="16"/>
@@ -29436,7 +30033,7 @@
       <c r="AP145" s="16"/>
     </row>
     <row r="146" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A146" s="12">
+      <c r="A146" s="21">
         <v>139</v>
       </c>
       <c r="B146" s="12" t="s">
@@ -29478,8 +30075,12 @@
       <c r="P146" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q146" s="12"/>
-      <c r="R146" s="12"/>
+      <c r="Q146" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R146" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="S146" s="12"/>
       <c r="T146" s="12" t="s">
         <v>290</v>
@@ -29489,22 +30090,54 @@
       <c r="W146" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X146" s="16"/>
-      <c r="Y146" s="16"/>
-      <c r="Z146" s="16"/>
-      <c r="AA146" s="16"/>
-      <c r="AB146" s="16"/>
-      <c r="AC146" s="16"/>
-      <c r="AD146" s="16"/>
-      <c r="AE146" s="16"/>
-      <c r="AF146" s="16"/>
-      <c r="AG146" s="16"/>
-      <c r="AH146" s="16"/>
-      <c r="AI146" s="16"/>
-      <c r="AJ146" s="16"/>
-      <c r="AK146" s="16"/>
-      <c r="AL146" s="16"/>
-      <c r="AM146" s="16"/>
+      <c r="X146" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y146" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z146" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA146" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB146" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD146" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE146" s="16">
+        <v>5</v>
+      </c>
+      <c r="AF146" s="16">
+        <v>5</v>
+      </c>
+      <c r="AG146" s="16">
+        <v>10</v>
+      </c>
+      <c r="AH146" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI146" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ146" s="16">
+        <v>10</v>
+      </c>
+      <c r="AK146" s="16">
+        <v>4</v>
+      </c>
+      <c r="AL146" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="AM146" s="16">
+        <v>1</v>
+      </c>
       <c r="AN146" s="16"/>
       <c r="AO146" s="16"/>
       <c r="AP146" s="16"/>
@@ -29802,7 +30435,7 @@
       <c r="AP150" s="16"/>
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A151" s="23">
+      <c r="A151" s="22">
         <v>144</v>
       </c>
       <c r="B151" s="12" t="s">
@@ -29897,7 +30530,7 @@
       <c r="AK151" s="16">
         <v>7</v>
       </c>
-      <c r="AL151" s="26">
+      <c r="AL151" s="25">
         <v>0.2</v>
       </c>
       <c r="AM151" s="16">
@@ -30202,7 +30835,7 @@
       <c r="AP155" s="16"/>
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A156" s="12">
+      <c r="A156" s="21">
         <v>149</v>
       </c>
       <c r="B156" s="12" t="s">
@@ -30244,8 +30877,12 @@
       <c r="P156" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q156" s="12"/>
-      <c r="R156" s="12"/>
+      <c r="Q156" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R156" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S156" s="12"/>
       <c r="T156" s="12" t="s">
         <v>290</v>
@@ -30255,22 +30892,50 @@
       <c r="W156" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X156" s="16"/>
-      <c r="Y156" s="16"/>
-      <c r="Z156" s="16"/>
-      <c r="AA156" s="16"/>
-      <c r="AB156" s="16"/>
-      <c r="AC156" s="16"/>
-      <c r="AD156" s="16"/>
-      <c r="AE156" s="16"/>
-      <c r="AF156" s="16"/>
-      <c r="AG156" s="16"/>
+      <c r="X156" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z156" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA156" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB156" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC156" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD156" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE156" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF156" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG156" s="16">
+        <v>0</v>
+      </c>
       <c r="AH156" s="16"/>
       <c r="AI156" s="16"/>
-      <c r="AJ156" s="16"/>
-      <c r="AK156" s="16"/>
-      <c r="AL156" s="16"/>
-      <c r="AM156" s="16"/>
+      <c r="AJ156" s="16">
+        <v>39</v>
+      </c>
+      <c r="AK156" s="16">
+        <v>26</v>
+      </c>
+      <c r="AL156" s="25">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AM156" s="16">
+        <v>0</v>
+      </c>
       <c r="AN156" s="16"/>
       <c r="AO156" s="16"/>
       <c r="AP156" s="16"/>
@@ -30862,7 +31527,7 @@
       <c r="AP164" s="16"/>
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A165" s="15">
+      <c r="A165" s="22">
         <v>158</v>
       </c>
       <c r="B165" s="12" t="s">
@@ -30904,8 +31569,12 @@
       <c r="P165" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q165" s="12"/>
-      <c r="R165" s="12"/>
+      <c r="Q165" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R165" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S165" s="12"/>
       <c r="T165" s="12" t="s">
         <v>290</v>
@@ -30915,22 +31584,50 @@
       <c r="W165" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X165" s="16"/>
-      <c r="Y165" s="16"/>
-      <c r="Z165" s="16"/>
-      <c r="AA165" s="16"/>
-      <c r="AB165" s="16"/>
-      <c r="AC165" s="16"/>
-      <c r="AD165" s="16"/>
-      <c r="AE165" s="16"/>
-      <c r="AF165" s="16"/>
-      <c r="AG165" s="16"/>
+      <c r="X165" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y165" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z165" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB165" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC165" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD165" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE165" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF165" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG165" s="16">
+        <v>0</v>
+      </c>
       <c r="AH165" s="16"/>
       <c r="AI165" s="16"/>
-      <c r="AJ165" s="16"/>
-      <c r="AK165" s="16"/>
-      <c r="AL165" s="16"/>
-      <c r="AM165" s="16"/>
+      <c r="AJ165" s="16">
+        <v>13</v>
+      </c>
+      <c r="AK165" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL165" s="25">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="AM165" s="16">
+        <v>1</v>
+      </c>
       <c r="AN165" s="16"/>
       <c r="AO165" s="16"/>
       <c r="AP165" s="16"/>
@@ -31010,7 +31707,7 @@
       <c r="AP166" s="16"/>
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A167" s="23">
+      <c r="A167" s="22">
         <v>160</v>
       </c>
       <c r="B167" s="12" t="s">
@@ -31105,7 +31802,7 @@
       <c r="AK167" s="16">
         <v>11</v>
       </c>
-      <c r="AL167" s="26">
+      <c r="AL167" s="25">
         <v>0.64710000000000001</v>
       </c>
       <c r="AM167" s="16">
@@ -31264,7 +31961,7 @@
       <c r="AP169" s="16"/>
     </row>
     <row r="170" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A170" s="12">
+      <c r="A170" s="26">
         <v>163</v>
       </c>
       <c r="B170" s="12" t="s">
@@ -31307,7 +32004,9 @@
         <v>48</v>
       </c>
       <c r="Q170" s="12"/>
-      <c r="R170" s="12"/>
+      <c r="R170" s="12" t="s">
+        <v>1521</v>
+      </c>
       <c r="S170" s="12"/>
       <c r="T170" s="12" t="s">
         <v>297</v>
@@ -31336,7 +32035,7 @@
       <c r="AP170" s="16"/>
     </row>
     <row r="171" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A171" s="15">
+      <c r="A171" s="22">
         <v>164</v>
       </c>
       <c r="B171" s="12" t="s">
@@ -31378,8 +32077,12 @@
       <c r="P171" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q171" s="12"/>
-      <c r="R171" s="12"/>
+      <c r="Q171" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R171" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S171" s="12"/>
       <c r="T171" s="12" t="s">
         <v>290</v>
@@ -31389,22 +32092,50 @@
       <c r="W171" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X171" s="16"/>
-      <c r="Y171" s="16"/>
-      <c r="Z171" s="16"/>
-      <c r="AA171" s="16"/>
-      <c r="AB171" s="16"/>
-      <c r="AC171" s="16"/>
-      <c r="AD171" s="16"/>
-      <c r="AE171" s="16"/>
-      <c r="AF171" s="16"/>
-      <c r="AG171" s="16"/>
+      <c r="X171" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y171" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD171" s="16">
+        <v>15</v>
+      </c>
+      <c r="AE171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG171" s="16">
+        <v>0</v>
+      </c>
       <c r="AH171" s="16"/>
       <c r="AI171" s="16"/>
-      <c r="AJ171" s="16"/>
-      <c r="AK171" s="16"/>
-      <c r="AL171" s="16"/>
-      <c r="AM171" s="16"/>
+      <c r="AJ171" s="16">
+        <v>54</v>
+      </c>
+      <c r="AK171" s="16">
+        <v>8</v>
+      </c>
+      <c r="AL171" s="25">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="AM171" s="16">
+        <v>1</v>
+      </c>
       <c r="AN171" s="16"/>
       <c r="AO171" s="16"/>
       <c r="AP171" s="16"/>
@@ -31922,7 +32653,7 @@
       <c r="AP178" s="16"/>
     </row>
     <row r="179" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A179" s="23">
+      <c r="A179" s="22">
         <v>172</v>
       </c>
       <c r="B179" s="12" t="s">
@@ -32015,7 +32746,7 @@
       <c r="AK179" s="16">
         <v>19</v>
       </c>
-      <c r="AL179" s="26">
+      <c r="AL179" s="25">
         <v>0.44190000000000002</v>
       </c>
       <c r="AM179" s="16">
@@ -32244,7 +32975,7 @@
       <c r="AP182" s="16"/>
     </row>
     <row r="183" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A183" s="15">
+      <c r="A183" s="27">
         <v>176</v>
       </c>
       <c r="B183" s="12" t="s">
@@ -32287,7 +33018,9 @@
         <v>48</v>
       </c>
       <c r="Q183" s="12"/>
-      <c r="R183" s="12"/>
+      <c r="R183" s="12" t="s">
+        <v>1521</v>
+      </c>
       <c r="S183" s="12"/>
       <c r="T183" s="12" t="s">
         <v>297</v>
@@ -32316,7 +33049,7 @@
       <c r="AP183" s="16"/>
     </row>
     <row r="184" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A184" s="12">
+      <c r="A184" s="21">
         <v>177</v>
       </c>
       <c r="B184" s="12" t="s">
@@ -32358,8 +33091,12 @@
       <c r="P184" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q184" s="12"/>
-      <c r="R184" s="12"/>
+      <c r="Q184" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R184" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S184" s="12"/>
       <c r="T184" s="12" t="s">
         <v>290</v>
@@ -32369,22 +33106,50 @@
       <c r="W184" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X184" s="16"/>
-      <c r="Y184" s="16"/>
-      <c r="Z184" s="16"/>
-      <c r="AA184" s="16"/>
-      <c r="AB184" s="16"/>
-      <c r="AC184" s="16"/>
-      <c r="AD184" s="16"/>
-      <c r="AE184" s="16"/>
-      <c r="AF184" s="16"/>
-      <c r="AG184" s="16"/>
+      <c r="X184" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y184" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z184" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA184" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB184" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC184" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD184" s="16">
+        <v>16</v>
+      </c>
+      <c r="AE184" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF184" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG184" s="16">
+        <v>0</v>
+      </c>
       <c r="AH184" s="16"/>
       <c r="AI184" s="16"/>
-      <c r="AJ184" s="16"/>
-      <c r="AK184" s="16"/>
-      <c r="AL184" s="16"/>
-      <c r="AM184" s="16"/>
+      <c r="AJ184" s="16">
+        <v>14</v>
+      </c>
+      <c r="AK184" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL184" s="25">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="AM184" s="16">
+        <v>0</v>
+      </c>
       <c r="AN184" s="16"/>
       <c r="AO184" s="16"/>
       <c r="AP184" s="16"/>
@@ -32972,7 +33737,7 @@
       <c r="AP192" s="16"/>
     </row>
     <row r="193" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A193" s="23">
+      <c r="A193" s="22">
         <v>186</v>
       </c>
       <c r="B193" s="12" t="s">
@@ -33067,7 +33832,7 @@
       <c r="AK193" s="16">
         <v>6</v>
       </c>
-      <c r="AL193" s="26">
+      <c r="AL193" s="25">
         <v>0.15379999999999999</v>
       </c>
       <c r="AM193" s="16">
@@ -33078,7 +33843,7 @@
       <c r="AP193" s="16"/>
     </row>
     <row r="194" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A194" s="12">
+      <c r="A194" s="21">
         <v>187</v>
       </c>
       <c r="B194" s="12" t="s">
@@ -33120,8 +33885,12 @@
       <c r="P194" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q194" s="12"/>
-      <c r="R194" s="12"/>
+      <c r="Q194" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R194" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S194" s="12"/>
       <c r="T194" s="12" t="s">
         <v>290</v>
@@ -33131,28 +33900,56 @@
       <c r="W194" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X194" s="16"/>
-      <c r="Y194" s="16"/>
-      <c r="Z194" s="16"/>
-      <c r="AA194" s="16"/>
-      <c r="AB194" s="16"/>
-      <c r="AC194" s="16"/>
-      <c r="AD194" s="16"/>
-      <c r="AE194" s="16"/>
-      <c r="AF194" s="16"/>
-      <c r="AG194" s="16"/>
+      <c r="X194" s="16">
+        <v>18</v>
+      </c>
+      <c r="Y194" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z194" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA194" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB194" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC194" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD194" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE194" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF194" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG194" s="16">
+        <v>0</v>
+      </c>
       <c r="AH194" s="16"/>
       <c r="AI194" s="16"/>
-      <c r="AJ194" s="16"/>
-      <c r="AK194" s="16"/>
-      <c r="AL194" s="16"/>
-      <c r="AM194" s="16"/>
+      <c r="AJ194" s="16">
+        <v>30</v>
+      </c>
+      <c r="AK194" s="16">
+        <v>30</v>
+      </c>
+      <c r="AL194" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM194" s="16">
+        <v>1</v>
+      </c>
       <c r="AN194" s="16"/>
       <c r="AO194" s="16"/>
       <c r="AP194" s="16"/>
     </row>
     <row r="195" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A195" s="15">
+      <c r="A195" s="27">
         <v>188</v>
       </c>
       <c r="B195" s="12" t="s">
@@ -33195,7 +33992,9 @@
         <v>48</v>
       </c>
       <c r="Q195" s="12"/>
-      <c r="R195" s="12"/>
+      <c r="R195" s="12" t="s">
+        <v>1521</v>
+      </c>
       <c r="S195" s="12"/>
       <c r="T195" s="12" t="s">
         <v>290</v>
@@ -33224,7 +34023,7 @@
       <c r="AP195" s="16"/>
     </row>
     <row r="196" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A196" s="12">
+      <c r="A196" s="21">
         <v>189</v>
       </c>
       <c r="B196" s="12" t="s">
@@ -33266,8 +34065,12 @@
       <c r="P196" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q196" s="12"/>
-      <c r="R196" s="12"/>
+      <c r="Q196" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R196" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="S196" s="12"/>
       <c r="T196" s="12" t="s">
         <v>290</v>
@@ -33277,22 +34080,52 @@
       <c r="W196" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X196" s="16"/>
-      <c r="Y196" s="16"/>
-      <c r="Z196" s="16"/>
-      <c r="AA196" s="16"/>
-      <c r="AB196" s="16"/>
-      <c r="AC196" s="16"/>
-      <c r="AD196" s="16"/>
-      <c r="AE196" s="16"/>
-      <c r="AF196" s="16"/>
-      <c r="AG196" s="16"/>
+      <c r="X196" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y196" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z196" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA196" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB196" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC196" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD196" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE196" s="16">
+        <v>5</v>
+      </c>
+      <c r="AF196" s="16">
+        <v>5</v>
+      </c>
+      <c r="AG196" s="16">
+        <v>10</v>
+      </c>
       <c r="AH196" s="16"/>
-      <c r="AI196" s="16"/>
-      <c r="AJ196" s="16"/>
-      <c r="AK196" s="16"/>
-      <c r="AL196" s="16"/>
-      <c r="AM196" s="16"/>
+      <c r="AI196" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ196" s="16">
+        <v>31</v>
+      </c>
+      <c r="AK196" s="16">
+        <v>15</v>
+      </c>
+      <c r="AL196" s="25">
+        <v>0.4839</v>
+      </c>
+      <c r="AM196" s="16">
+        <v>1</v>
+      </c>
       <c r="AN196" s="16"/>
       <c r="AO196" s="16"/>
       <c r="AP196" s="16"/>
@@ -33520,7 +34353,7 @@
       <c r="AP199" s="16"/>
     </row>
     <row r="200" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A200" s="12">
+      <c r="A200" s="26">
         <v>193</v>
       </c>
       <c r="B200" s="12" t="s">
@@ -33563,7 +34396,9 @@
         <v>48</v>
       </c>
       <c r="Q200" s="12"/>
-      <c r="R200" s="12"/>
+      <c r="R200" s="12" t="s">
+        <v>1521</v>
+      </c>
       <c r="S200" s="12"/>
       <c r="T200" s="12" t="s">
         <v>290</v>
@@ -33814,7 +34649,7 @@
       <c r="AP203" s="16"/>
     </row>
     <row r="204" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A204" s="22">
+      <c r="A204" s="21">
         <v>197</v>
       </c>
       <c r="B204" s="12" t="s">
@@ -33911,7 +34746,7 @@
       <c r="AK204" s="16">
         <v>7</v>
       </c>
-      <c r="AL204" s="26">
+      <c r="AL204" s="25">
         <v>0.4375</v>
       </c>
       <c r="AM204" s="16">
@@ -33996,7 +34831,7 @@
       <c r="AP205" s="16"/>
     </row>
     <row r="206" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A206" s="27">
+      <c r="A206" s="26">
         <v>199</v>
       </c>
       <c r="B206" s="12" t="s">
@@ -34070,7 +34905,7 @@
       <c r="AP206" s="16"/>
     </row>
     <row r="207" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A207" s="15">
+      <c r="A207" s="27">
         <v>200</v>
       </c>
       <c r="B207" s="12" t="s">
@@ -34113,7 +34948,9 @@
         <v>48</v>
       </c>
       <c r="Q207" s="12"/>
-      <c r="R207" s="12"/>
+      <c r="R207" s="12" t="s">
+        <v>1521</v>
+      </c>
       <c r="S207" s="12"/>
       <c r="T207" s="12" t="s">
         <v>290</v>
@@ -34216,7 +35053,7 @@
       <c r="AP208" s="16"/>
     </row>
     <row r="209" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A209" s="23">
+      <c r="A209" s="22">
         <v>202</v>
       </c>
       <c r="B209" s="12" t="s">
@@ -34311,7 +35148,7 @@
       <c r="AK209" s="16">
         <v>11</v>
       </c>
-      <c r="AL209" s="26">
+      <c r="AL209" s="25">
         <v>0.57889999999999997</v>
       </c>
       <c r="AM209" s="16">
@@ -35712,7 +36549,7 @@
       <c r="AP228" s="16"/>
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A229" s="23">
+      <c r="A229" s="22">
         <v>222</v>
       </c>
       <c r="B229" s="12" t="s">
@@ -35809,7 +36646,7 @@
       <c r="AK229" s="16">
         <v>18</v>
       </c>
-      <c r="AL229" s="26">
+      <c r="AL229" s="25">
         <v>0.81820000000000004</v>
       </c>
       <c r="AM229" s="16">
@@ -36700,7 +37537,7 @@
       <c r="AP241" s="16"/>
     </row>
     <row r="242" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A242" s="22">
+      <c r="A242" s="21">
         <v>235</v>
       </c>
       <c r="B242" s="12" t="s">
@@ -36797,7 +37634,7 @@
       <c r="AK242" s="16">
         <v>25</v>
       </c>
-      <c r="AL242" s="26">
+      <c r="AL242" s="25">
         <v>0.86209999999999998</v>
       </c>
       <c r="AM242" s="16">
@@ -36808,7 +37645,7 @@
       <c r="AP242" s="16"/>
     </row>
     <row r="243" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A243" s="15">
+      <c r="A243" s="22">
         <v>236</v>
       </c>
       <c r="B243" s="12" t="s">
@@ -36850,8 +37687,12 @@
       <c r="P243" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q243" s="12"/>
-      <c r="R243" s="12"/>
+      <c r="Q243" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R243" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S243" s="12"/>
       <c r="T243" s="12"/>
       <c r="U243" s="12"/>
@@ -36859,22 +37700,52 @@
       <c r="W243" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X243" s="16"/>
-      <c r="Y243" s="16"/>
-      <c r="Z243" s="16"/>
-      <c r="AA243" s="16"/>
-      <c r="AB243" s="16"/>
-      <c r="AC243" s="16"/>
-      <c r="AD243" s="16"/>
-      <c r="AE243" s="16"/>
-      <c r="AF243" s="16"/>
-      <c r="AG243" s="16"/>
+      <c r="X243" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y243" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z243" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA243" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB243" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC243" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD243" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE243" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF243" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG243" s="16">
+        <v>10</v>
+      </c>
       <c r="AH243" s="16"/>
-      <c r="AI243" s="16"/>
-      <c r="AJ243" s="16"/>
-      <c r="AK243" s="16"/>
-      <c r="AL243" s="16"/>
-      <c r="AM243" s="16"/>
+      <c r="AI243" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ243" s="16">
+        <v>30</v>
+      </c>
+      <c r="AK243" s="16">
+        <v>2</v>
+      </c>
+      <c r="AL243" s="25">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="AM243" s="16">
+        <v>1</v>
+      </c>
       <c r="AN243" s="16"/>
       <c r="AO243" s="16"/>
       <c r="AP243" s="16"/>
@@ -37020,7 +37891,7 @@
       <c r="AP245" s="16"/>
     </row>
     <row r="246" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A246" s="22">
+      <c r="A246" s="21">
         <v>239</v>
       </c>
       <c r="B246" s="12" t="s">
@@ -37113,7 +37984,7 @@
       <c r="AK246" s="16">
         <v>15</v>
       </c>
-      <c r="AL246" s="26">
+      <c r="AL246" s="25">
         <v>0.20269999999999999</v>
       </c>
       <c r="AM246" s="16">
@@ -37492,7 +38363,7 @@
       <c r="AP251" s="16"/>
     </row>
     <row r="252" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A252" s="27">
+      <c r="A252" s="26">
         <v>245</v>
       </c>
       <c r="B252" s="12" t="s">
@@ -37790,7 +38661,7 @@
       <c r="AP255" s="16"/>
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A256" s="22">
+      <c r="A256" s="21">
         <v>249</v>
       </c>
       <c r="B256" s="12" t="s">
@@ -37885,7 +38756,7 @@
       <c r="AK256" s="16">
         <v>36</v>
       </c>
-      <c r="AL256" s="26">
+      <c r="AL256" s="25">
         <v>0.83720000000000006</v>
       </c>
       <c r="AM256" s="16">
@@ -37970,7 +38841,7 @@
       <c r="AP257" s="16"/>
     </row>
     <row r="258" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A258" s="22">
+      <c r="A258" s="21">
         <v>251</v>
       </c>
       <c r="B258" s="12" t="s">
@@ -38065,7 +38936,7 @@
       <c r="AK258" s="16">
         <v>17</v>
       </c>
-      <c r="AL258" s="26">
+      <c r="AL258" s="25">
         <v>0.39529999999999998</v>
       </c>
       <c r="AM258" s="16">
@@ -38076,7 +38947,7 @@
       <c r="AP258" s="16"/>
     </row>
     <row r="259" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A259" s="23">
+      <c r="A259" s="22">
         <v>252</v>
       </c>
       <c r="B259" s="12" t="s">
@@ -38169,7 +39040,7 @@
       <c r="AK259" s="16">
         <v>19</v>
       </c>
-      <c r="AL259" s="26">
+      <c r="AL259" s="25">
         <v>0.5</v>
       </c>
       <c r="AM259" s="16">
@@ -38331,7 +39202,7 @@
       <c r="AP261" s="16"/>
     </row>
     <row r="262" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A262" s="22">
+      <c r="A262" s="21">
         <v>255</v>
       </c>
       <c r="B262" s="12" t="s">
@@ -38430,7 +39301,7 @@
       <c r="AK262" s="16">
         <v>36</v>
       </c>
-      <c r="AL262" s="26">
+      <c r="AL262" s="25">
         <v>0.94740000000000002</v>
       </c>
       <c r="AM262" s="16">
@@ -38587,7 +39458,7 @@
       <c r="AP264" s="16"/>
     </row>
     <row r="265" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A265" s="15">
+      <c r="A265" s="22">
         <v>258</v>
       </c>
       <c r="B265" s="12" t="s">
@@ -38629,8 +39500,12 @@
       <c r="P265" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q265" s="12"/>
-      <c r="R265" s="12"/>
+      <c r="Q265" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R265" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S265" s="12"/>
       <c r="T265" s="12" t="s">
         <v>290</v>
@@ -38640,22 +39515,54 @@
       <c r="W265" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X265" s="16"/>
-      <c r="Y265" s="16"/>
-      <c r="Z265" s="16"/>
-      <c r="AA265" s="16"/>
-      <c r="AB265" s="16"/>
-      <c r="AC265" s="16"/>
-      <c r="AD265" s="16"/>
-      <c r="AE265" s="16"/>
-      <c r="AF265" s="16"/>
-      <c r="AG265" s="16"/>
-      <c r="AH265" s="16"/>
-      <c r="AI265" s="16"/>
-      <c r="AJ265" s="16"/>
-      <c r="AK265" s="16"/>
-      <c r="AL265" s="16"/>
-      <c r="AM265" s="16"/>
+      <c r="X265" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y265" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z265" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA265" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB265" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC265" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD265" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE265" s="16">
+        <v>5</v>
+      </c>
+      <c r="AF265" s="16">
+        <v>5</v>
+      </c>
+      <c r="AG265" s="16">
+        <v>10</v>
+      </c>
+      <c r="AH265" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI265" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ265" s="16">
+        <v>28</v>
+      </c>
+      <c r="AK265" s="16">
+        <v>11</v>
+      </c>
+      <c r="AL265" s="25">
+        <v>0.39290000000000003</v>
+      </c>
+      <c r="AM265" s="16">
+        <v>1</v>
+      </c>
       <c r="AN265" s="16"/>
       <c r="AO265" s="16"/>
       <c r="AP265" s="16"/>
@@ -39029,7 +39936,7 @@
       <c r="AP270" s="16"/>
     </row>
     <row r="271" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A271" s="15">
+      <c r="A271" s="22">
         <v>264</v>
       </c>
       <c r="B271" s="12" t="s">
@@ -39071,8 +39978,12 @@
       <c r="P271" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q271" s="12"/>
-      <c r="R271" s="12"/>
+      <c r="Q271" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R271" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S271" s="12"/>
       <c r="T271" s="12" t="s">
         <v>297</v>
@@ -39080,22 +39991,50 @@
       <c r="U271" s="12"/>
       <c r="V271" s="12"/>
       <c r="W271" s="16"/>
-      <c r="X271" s="16"/>
-      <c r="Y271" s="16"/>
-      <c r="Z271" s="16"/>
-      <c r="AA271" s="16"/>
-      <c r="AB271" s="16"/>
-      <c r="AC271" s="16"/>
-      <c r="AD271" s="16"/>
-      <c r="AE271" s="16"/>
-      <c r="AF271" s="16"/>
-      <c r="AG271" s="16"/>
+      <c r="X271" s="16">
+        <v>5</v>
+      </c>
+      <c r="Y271" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z271" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA271" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB271" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD271" s="16">
+        <v>5</v>
+      </c>
+      <c r="AE271" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF271" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG271" s="16">
+        <v>0</v>
+      </c>
       <c r="AH271" s="16"/>
       <c r="AI271" s="16"/>
-      <c r="AJ271" s="16"/>
-      <c r="AK271" s="16"/>
-      <c r="AL271" s="16"/>
-      <c r="AM271" s="16"/>
+      <c r="AJ271" s="16">
+        <v>66</v>
+      </c>
+      <c r="AK271" s="16">
+        <v>10</v>
+      </c>
+      <c r="AL271" s="25">
+        <v>0.1515</v>
+      </c>
+      <c r="AM271" s="16">
+        <v>0</v>
+      </c>
       <c r="AN271" s="16"/>
       <c r="AO271" s="16"/>
       <c r="AP271" s="16"/>
@@ -40055,7 +40994,7 @@
       <c r="AP284" s="16"/>
     </row>
     <row r="285" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A285" s="28">
+      <c r="A285" s="27">
         <v>278</v>
       </c>
       <c r="B285" s="12" t="s">
@@ -40129,7 +41068,7 @@
       <c r="AP285" s="16"/>
     </row>
     <row r="286" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A286" s="12">
+      <c r="A286" s="21">
         <v>279</v>
       </c>
       <c r="B286" s="12" t="s">
@@ -40171,8 +41110,12 @@
       <c r="P286" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q286" s="12"/>
-      <c r="R286" s="12"/>
+      <c r="Q286" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R286" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S286" s="12"/>
       <c r="T286" s="12" t="s">
         <v>297</v>
@@ -40182,22 +41125,52 @@
       <c r="W286" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X286" s="16"/>
-      <c r="Y286" s="16"/>
-      <c r="Z286" s="16"/>
-      <c r="AA286" s="16"/>
-      <c r="AB286" s="16"/>
-      <c r="AC286" s="16"/>
-      <c r="AD286" s="16"/>
-      <c r="AE286" s="16"/>
-      <c r="AF286" s="16"/>
-      <c r="AG286" s="16"/>
+      <c r="X286" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y286" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z286" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA286" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB286" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC286" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD286" s="16">
+        <v>20</v>
+      </c>
+      <c r="AE286" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF286" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG286" s="16">
+        <v>10</v>
+      </c>
       <c r="AH286" s="16"/>
-      <c r="AI286" s="16"/>
-      <c r="AJ286" s="16"/>
-      <c r="AK286" s="16"/>
-      <c r="AL286" s="16"/>
-      <c r="AM286" s="16"/>
+      <c r="AI286" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ286" s="16">
+        <v>35</v>
+      </c>
+      <c r="AK286" s="16">
+        <v>11</v>
+      </c>
+      <c r="AL286" s="25">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="AM286" s="16">
+        <v>0</v>
+      </c>
       <c r="AN286" s="16"/>
       <c r="AO286" s="16"/>
       <c r="AP286" s="16"/>
@@ -40353,7 +41326,7 @@
       <c r="AP288" s="16"/>
     </row>
     <row r="289" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A289" s="15">
+      <c r="A289" s="22">
         <v>282</v>
       </c>
       <c r="B289" s="12" t="s">
@@ -40395,8 +41368,12 @@
       <c r="P289" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q289" s="12"/>
-      <c r="R289" s="12"/>
+      <c r="Q289" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R289" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="S289" s="12"/>
       <c r="T289" s="12" t="s">
         <v>297</v>
@@ -40406,22 +41383,50 @@
       <c r="W289" s="16" t="s">
         <v>1480</v>
       </c>
-      <c r="X289" s="16"/>
-      <c r="Y289" s="16"/>
-      <c r="Z289" s="16"/>
-      <c r="AA289" s="16"/>
-      <c r="AB289" s="16"/>
-      <c r="AC289" s="16"/>
-      <c r="AD289" s="16"/>
-      <c r="AE289" s="16"/>
-      <c r="AF289" s="16"/>
-      <c r="AG289" s="16"/>
+      <c r="X289" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y289" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z289" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA289" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB289" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC289" s="16">
+        <v>5</v>
+      </c>
+      <c r="AD289" s="16">
+        <v>15</v>
+      </c>
+      <c r="AE289" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF289" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG289" s="16">
+        <v>0</v>
+      </c>
       <c r="AH289" s="16"/>
       <c r="AI289" s="16"/>
-      <c r="AJ289" s="16"/>
-      <c r="AK289" s="16"/>
-      <c r="AL289" s="16"/>
-      <c r="AM289" s="16"/>
+      <c r="AJ289" s="16">
+        <v>34</v>
+      </c>
+      <c r="AK289" s="16">
+        <v>9</v>
+      </c>
+      <c r="AL289" s="25">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="AM289" s="16">
+        <v>0</v>
+      </c>
       <c r="AN289" s="16"/>
       <c r="AO289" s="16"/>
       <c r="AP289" s="16"/>
@@ -40501,7 +41506,7 @@
       <c r="AP290" s="16"/>
     </row>
     <row r="291" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A291" s="23">
+      <c r="A291" s="22">
         <v>284</v>
       </c>
       <c r="B291" s="12" t="s">
@@ -40600,7 +41605,7 @@
       <c r="AK291" s="16">
         <v>15</v>
       </c>
-      <c r="AL291" s="26">
+      <c r="AL291" s="25">
         <v>0.4839</v>
       </c>
       <c r="AM291" s="16">
@@ -40757,7 +41762,7 @@
       <c r="AP293" s="16"/>
     </row>
     <row r="294" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A294" s="22">
+      <c r="A294" s="21">
         <v>287</v>
       </c>
       <c r="B294" s="12" t="s">
@@ -40854,7 +41859,7 @@
       <c r="AK294" s="16">
         <v>9</v>
       </c>
-      <c r="AL294" s="26">
+      <c r="AL294" s="25">
         <v>0.69230000000000003</v>
       </c>
       <c r="AM294" s="16">
@@ -40865,7 +41870,7 @@
       <c r="AP294" s="16"/>
     </row>
     <row r="295" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A295" s="15">
+      <c r="A295" s="27">
         <v>288</v>
       </c>
       <c r="B295" s="12" t="s">
@@ -40908,7 +41913,9 @@
         <v>48</v>
       </c>
       <c r="Q295" s="12"/>
-      <c r="R295" s="12"/>
+      <c r="R295" s="12" t="s">
+        <v>1521</v>
+      </c>
       <c r="S295" s="12"/>
       <c r="T295" s="12" t="s">
         <v>290</v>
@@ -57801,7 +58808,7 @@
       <c r="AP534" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:AP534">
+  <autoFilter ref="A7:AP534" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Luật"/>
@@ -57813,8 +58820,8 @@
     <mergeCell ref="A4:V4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J525" r:id="rId1"/>
-    <hyperlink ref="J512" r:id="rId2"/>
+    <hyperlink ref="J525" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J512" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.196850393700787" footer="0.196850393700787"/>
